--- a/src/assets/ExcelSample/ThuongMaiBienGioi.xlsx
+++ b/src/assets/ExcelSample/ThuongMaiBienGioi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -249,6 +249,51 @@
   </si>
   <si>
     <t>Giá trị</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>A.</t>
+  </si>
+  <si>
+    <t>I.</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. </t>
+  </si>
+  <si>
+    <t>II.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">III. </t>
+  </si>
+  <si>
+    <t>B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. </t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II. </t>
+  </si>
+  <si>
+    <t>IV.</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. </t>
   </si>
 </sst>
 </file>
@@ -258,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +324,27 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -320,7 +386,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -334,6 +400,18 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -618,1077 +696,1204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>154</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>155</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>156</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>157</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>158</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>159</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>160</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>161</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>162</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>163</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>164</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>165</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>166</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>167</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>168</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>169</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>170</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>171</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>172</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>173</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>174</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>175</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>176</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>177</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>178</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>179</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>180</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>181</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>182</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>183</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>184</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>185</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>186</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>187</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>188</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>189</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>190</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>191</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>192</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>193</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>194</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>195</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>196</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>197</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>198</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>199</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="9"/>
+      <c r="C47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>200</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>201</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="9"/>
+      <c r="C49" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>202</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="9"/>
+      <c r="C50" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>203</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="9"/>
+      <c r="C51" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>204</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="9"/>
+      <c r="C52" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>205</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="9"/>
+      <c r="C53" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>206</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="9"/>
+      <c r="C54" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>207</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="9"/>
+      <c r="C55" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>208</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="9"/>
+      <c r="C56" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>209</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="9"/>
+      <c r="C57" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>210</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="9"/>
+      <c r="C58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>211</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>212</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="9"/>
+      <c r="C60" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>213</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>214</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="9"/>
+      <c r="C62" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>215</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="9"/>
+      <c r="C63" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>216</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="9"/>
+      <c r="C64" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>217</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="9"/>
+      <c r="C65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>218</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>219</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="9"/>
+      <c r="C67" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>220</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="9"/>
+      <c r="C68" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D68" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>221</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>222</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="9"/>
+      <c r="C70" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>223</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="9"/>
+      <c r="C71" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>224</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="9"/>
+      <c r="C72" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>225</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="9"/>
+      <c r="C73" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>226</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>227</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D75" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>228</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D76" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>229</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>230</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>231</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="9"/>
+      <c r="C79" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" s="5"/>
-    </row>
-    <row r="80" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D79" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>232</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="9"/>
+      <c r="C80" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>233</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="5"/>
-    </row>
-    <row r="82" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>234</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="9"/>
+      <c r="C82" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D82" s="5"/>
-    </row>
-    <row r="83" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>235</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="9"/>
+      <c r="C83" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" s="5"/>
-    </row>
-    <row r="84" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>236</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="9"/>
+      <c r="C84" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>237</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="9"/>
+      <c r="C85" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D85" s="5"/>
-    </row>
-    <row r="86" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D85" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>238</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="9"/>
+      <c r="C86" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D86" s="5"/>
-    </row>
-    <row r="87" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>239</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="9"/>
+      <c r="C87" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D87" s="5"/>
-    </row>
-    <row r="88" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>240</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="9"/>
+      <c r="C88" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88" s="5"/>
+      <c r="D88" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E88" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/ExcelSample/ThuongMaiBienGioi.xlsx
+++ b/src/assets/ExcelSample/ThuongMaiBienGioi.xlsx
@@ -251,9 +251,6 @@
     <t>Giá trị</t>
   </si>
   <si>
-    <t>TT</t>
-  </si>
-  <si>
     <t>A.</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t xml:space="preserve">C. </t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>73</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="2" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
@@ -743,10 +743,10 @@
     </row>
     <row r="3" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>5</v>
@@ -758,10 +758,10 @@
     </row>
     <row r="4" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
@@ -773,10 +773,10 @@
     </row>
     <row r="5" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="6" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="6" t="s">
@@ -801,7 +801,7 @@
     </row>
     <row r="7" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="6" t="s">
@@ -814,7 +814,7 @@
     </row>
     <row r="8" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
@@ -827,7 +827,7 @@
     </row>
     <row r="9" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="6" t="s">
@@ -840,7 +840,7 @@
     </row>
     <row r="10" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
@@ -853,7 +853,7 @@
     </row>
     <row r="11" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="6" t="s">
@@ -866,7 +866,7 @@
     </row>
     <row r="12" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="6" t="s">
@@ -879,7 +879,7 @@
     </row>
     <row r="13" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
@@ -892,10 +892,10 @@
     </row>
     <row r="14" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>15</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="15" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
@@ -920,7 +920,7 @@
     </row>
     <row r="16" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="6" t="s">
@@ -933,7 +933,7 @@
     </row>
     <row r="17" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="6" t="s">
@@ -946,7 +946,7 @@
     </row>
     <row r="18" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="6" t="s">
@@ -959,7 +959,7 @@
     </row>
     <row r="19" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="6" t="s">
@@ -972,7 +972,7 @@
     </row>
     <row r="20" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="6" t="s">
@@ -985,7 +985,7 @@
     </row>
     <row r="21" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="6" t="s">
@@ -998,7 +998,7 @@
     </row>
     <row r="22" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="6" t="s">
@@ -1011,7 +1011,7 @@
     </row>
     <row r="23" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="6" t="s">
@@ -1024,7 +1024,7 @@
     </row>
     <row r="24" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="6" t="s">
@@ -1037,7 +1037,7 @@
     </row>
     <row r="25" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="6" t="s">
@@ -1050,10 +1050,10 @@
     </row>
     <row r="26" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>23</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="27" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="6" t="s">
@@ -1078,10 +1078,10 @@
     </row>
     <row r="28" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>25</v>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="29" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>26</v>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="30" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>27</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="31" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>7</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="32" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="6" t="s">
@@ -1151,7 +1151,7 @@
     </row>
     <row r="33" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="6" t="s">
@@ -1164,7 +1164,7 @@
     </row>
     <row r="34" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="6" t="s">
@@ -1177,7 +1177,7 @@
     </row>
     <row r="35" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="6" t="s">
@@ -1190,7 +1190,7 @@
     </row>
     <row r="36" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="6" t="s">
@@ -1203,7 +1203,7 @@
     </row>
     <row r="37" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="6" t="s">
@@ -1216,7 +1216,7 @@
     </row>
     <row r="38" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="6" t="s">
@@ -1229,7 +1229,7 @@
     </row>
     <row r="39" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="6" t="s">
@@ -1242,7 +1242,7 @@
     </row>
     <row r="40" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="6" t="s">
@@ -1255,7 +1255,7 @@
     </row>
     <row r="41" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="6" t="s">
@@ -1268,7 +1268,7 @@
     </row>
     <row r="42" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="6" t="s">
@@ -1281,7 +1281,7 @@
     </row>
     <row r="43" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="6" t="s">
@@ -1294,7 +1294,7 @@
     </row>
     <row r="44" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="6" t="s">
@@ -1307,10 +1307,10 @@
     </row>
     <row r="45" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>39</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="46" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="6" t="s">
@@ -1335,7 +1335,7 @@
     </row>
     <row r="47" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="6" t="s">
@@ -1348,7 +1348,7 @@
     </row>
     <row r="48" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="6" t="s">
@@ -1361,7 +1361,7 @@
     </row>
     <row r="49" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="6" t="s">
@@ -1374,7 +1374,7 @@
     </row>
     <row r="50" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="6" t="s">
@@ -1387,7 +1387,7 @@
     </row>
     <row r="51" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="6" t="s">
@@ -1400,7 +1400,7 @@
     </row>
     <row r="52" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="6" t="s">
@@ -1413,7 +1413,7 @@
     </row>
     <row r="53" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="6" t="s">
@@ -1426,7 +1426,7 @@
     </row>
     <row r="54" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="6" t="s">
@@ -1439,7 +1439,7 @@
     </row>
     <row r="55" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="6" t="s">
@@ -1452,7 +1452,7 @@
     </row>
     <row r="56" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="6" t="s">
@@ -1465,7 +1465,7 @@
     </row>
     <row r="57" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="6" t="s">
@@ -1478,7 +1478,7 @@
     </row>
     <row r="58" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="6" t="s">
@@ -1491,7 +1491,7 @@
     </row>
     <row r="59" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="6" t="s">
@@ -1504,7 +1504,7 @@
     </row>
     <row r="60" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="6" t="s">
@@ -1517,10 +1517,10 @@
     </row>
     <row r="61" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>52</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="62" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="6" t="s">
@@ -1545,7 +1545,7 @@
     </row>
     <row r="63" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="6" t="s">
@@ -1558,7 +1558,7 @@
     </row>
     <row r="64" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="6" t="s">
@@ -1571,7 +1571,7 @@
     </row>
     <row r="65" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="6" t="s">
@@ -1584,10 +1584,10 @@
     </row>
     <row r="66" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>55</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="67" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="6" t="s">
@@ -1612,7 +1612,7 @@
     </row>
     <row r="68" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="6" t="s">
@@ -1625,7 +1625,7 @@
     </row>
     <row r="69" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="6" t="s">
@@ -1638,7 +1638,7 @@
     </row>
     <row r="70" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
-        <v>222</v>
+        <v>122</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="6" t="s">
@@ -1651,7 +1651,7 @@
     </row>
     <row r="71" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="6" t="s">
@@ -1664,7 +1664,7 @@
     </row>
     <row r="72" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
-        <v>224</v>
+        <v>124</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="6" t="s">
@@ -1677,7 +1677,7 @@
     </row>
     <row r="73" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="6" t="s">
@@ -1690,10 +1690,10 @@
     </row>
     <row r="74" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>62</v>
@@ -1705,10 +1705,10 @@
     </row>
     <row r="75" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>25</v>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="76" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>63</v>
@@ -1735,10 +1735,10 @@
     </row>
     <row r="77" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>27</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="78" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>64</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="79" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="6" t="s">
@@ -1778,7 +1778,7 @@
     </row>
     <row r="80" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="6" t="s">
@@ -1791,10 +1791,10 @@
     </row>
     <row r="81" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>15</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="82" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="6" t="s">
@@ -1819,7 +1819,7 @@
     </row>
     <row r="83" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="6" t="s">
@@ -1832,7 +1832,7 @@
     </row>
     <row r="84" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="6" t="s">
@@ -1845,7 +1845,7 @@
     </row>
     <row r="85" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="6" t="s">
@@ -1858,7 +1858,7 @@
     </row>
     <row r="86" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
-        <v>238</v>
+        <v>138</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="6" t="s">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="87" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="6" t="s">
@@ -1884,7 +1884,7 @@
     </row>
     <row r="88" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="6" t="s">

--- a/src/assets/ExcelSample/ThuongMaiBienGioi.xlsx
+++ b/src/assets/ExcelSample/ThuongMaiBienGioi.xlsx
@@ -730,7 +730,7 @@
     </row>
     <row r="2" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
@@ -743,7 +743,7 @@
     </row>
     <row r="3" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>75</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="4" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>76</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="5" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>77</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="6" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="6" t="s">
@@ -801,7 +801,7 @@
     </row>
     <row r="7" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="6" t="s">
@@ -814,7 +814,7 @@
     </row>
     <row r="8" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
@@ -827,7 +827,7 @@
     </row>
     <row r="9" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="6" t="s">
@@ -840,7 +840,7 @@
     </row>
     <row r="10" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
@@ -853,7 +853,7 @@
     </row>
     <row r="11" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="6" t="s">
@@ -866,7 +866,7 @@
     </row>
     <row r="12" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="6" t="s">
@@ -879,7 +879,7 @@
     </row>
     <row r="13" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
@@ -892,7 +892,7 @@
     </row>
     <row r="14" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>78</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="15" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
@@ -920,7 +920,7 @@
     </row>
     <row r="16" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="6" t="s">
@@ -933,7 +933,7 @@
     </row>
     <row r="17" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="6" t="s">
@@ -946,7 +946,7 @@
     </row>
     <row r="18" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="6" t="s">
@@ -959,7 +959,7 @@
     </row>
     <row r="19" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="6" t="s">
@@ -972,7 +972,7 @@
     </row>
     <row r="20" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="6" t="s">
@@ -985,7 +985,7 @@
     </row>
     <row r="21" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="6" t="s">
@@ -998,7 +998,7 @@
     </row>
     <row r="22" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="6" t="s">
@@ -1011,7 +1011,7 @@
     </row>
     <row r="23" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="6" t="s">
@@ -1024,7 +1024,7 @@
     </row>
     <row r="24" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="6" t="s">
@@ -1037,7 +1037,7 @@
     </row>
     <row r="25" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="6" t="s">
@@ -1050,7 +1050,7 @@
     </row>
     <row r="26" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>79</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="27" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="6" t="s">
@@ -1078,7 +1078,7 @@
     </row>
     <row r="28" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>80</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="29" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>81</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="30" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>82</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="31" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>83</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="32" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="6" t="s">
@@ -1151,7 +1151,7 @@
     </row>
     <row r="33" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="6" t="s">
@@ -1164,7 +1164,7 @@
     </row>
     <row r="34" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="6" t="s">
@@ -1177,7 +1177,7 @@
     </row>
     <row r="35" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="6" t="s">
@@ -1190,7 +1190,7 @@
     </row>
     <row r="36" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="6" t="s">
@@ -1203,7 +1203,7 @@
     </row>
     <row r="37" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="6" t="s">
@@ -1216,7 +1216,7 @@
     </row>
     <row r="38" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="6" t="s">
@@ -1229,7 +1229,7 @@
     </row>
     <row r="39" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="6" t="s">
@@ -1242,7 +1242,7 @@
     </row>
     <row r="40" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="6" t="s">
@@ -1255,7 +1255,7 @@
     </row>
     <row r="41" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="6" t="s">
@@ -1268,7 +1268,7 @@
     </row>
     <row r="42" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="6" t="s">
@@ -1281,7 +1281,7 @@
     </row>
     <row r="43" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="6" t="s">
@@ -1294,7 +1294,7 @@
     </row>
     <row r="44" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="6" t="s">
@@ -1307,7 +1307,7 @@
     </row>
     <row r="45" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>84</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="46" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="6" t="s">
@@ -1335,7 +1335,7 @@
     </row>
     <row r="47" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="6" t="s">
@@ -1348,7 +1348,7 @@
     </row>
     <row r="48" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="6" t="s">
@@ -1361,7 +1361,7 @@
     </row>
     <row r="49" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="6" t="s">
@@ -1374,7 +1374,7 @@
     </row>
     <row r="50" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="6" t="s">
@@ -1387,7 +1387,7 @@
     </row>
     <row r="51" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="6" t="s">
@@ -1400,7 +1400,7 @@
     </row>
     <row r="52" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="6" t="s">
@@ -1413,7 +1413,7 @@
     </row>
     <row r="53" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="6" t="s">
@@ -1426,7 +1426,7 @@
     </row>
     <row r="54" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="6" t="s">
@@ -1439,7 +1439,7 @@
     </row>
     <row r="55" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="6" t="s">
@@ -1452,7 +1452,7 @@
     </row>
     <row r="56" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="6" t="s">
@@ -1465,7 +1465,7 @@
     </row>
     <row r="57" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="6" t="s">
@@ -1478,7 +1478,7 @@
     </row>
     <row r="58" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="6" t="s">
@@ -1491,7 +1491,7 @@
     </row>
     <row r="59" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="6" t="s">
@@ -1504,7 +1504,7 @@
     </row>
     <row r="60" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="6" t="s">
@@ -1517,7 +1517,7 @@
     </row>
     <row r="61" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>85</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="62" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="6" t="s">
@@ -1545,7 +1545,7 @@
     </row>
     <row r="63" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="6" t="s">
@@ -1558,7 +1558,7 @@
     </row>
     <row r="64" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="6" t="s">
@@ -1571,7 +1571,7 @@
     </row>
     <row r="65" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="6" t="s">
@@ -1584,7 +1584,7 @@
     </row>
     <row r="66" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>80</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="67" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="6" t="s">
@@ -1612,7 +1612,7 @@
     </row>
     <row r="68" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="6" t="s">
@@ -1625,7 +1625,7 @@
     </row>
     <row r="69" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="6" t="s">
@@ -1638,7 +1638,7 @@
     </row>
     <row r="70" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="6" t="s">
@@ -1651,7 +1651,7 @@
     </row>
     <row r="71" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="6" t="s">
@@ -1664,7 +1664,7 @@
     </row>
     <row r="72" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="6" t="s">
@@ -1677,7 +1677,7 @@
     </row>
     <row r="73" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="6" t="s">
@@ -1690,7 +1690,7 @@
     </row>
     <row r="74" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>86</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="75" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>87</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>88</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="77" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>82</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="78" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>77</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="79" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="6" t="s">
@@ -1778,7 +1778,7 @@
     </row>
     <row r="80" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="6" t="s">
@@ -1791,7 +1791,7 @@
     </row>
     <row r="81" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>78</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="82" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="6" t="s">
@@ -1819,7 +1819,7 @@
     </row>
     <row r="83" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="6" t="s">
@@ -1832,7 +1832,7 @@
     </row>
     <row r="84" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="6" t="s">
@@ -1845,7 +1845,7 @@
     </row>
     <row r="85" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="6" t="s">
@@ -1858,7 +1858,7 @@
     </row>
     <row r="86" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
-        <v>138</v>
+        <v>238</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="6" t="s">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="87" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="6" t="s">
@@ -1884,7 +1884,7 @@
     </row>
     <row r="88" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="6" t="s">
